--- a/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectFirst.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/Arrays_selectFirst.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5077EE3-E172-42F1-A741-81FA74B9473B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="12480" yWindow="2960" windowWidth="21920" windowHeight="15900" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="setUp" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="106">
   <si>
     <t xml:space="preserve">Datatype car </t>
   </si>
@@ -122,9 +123,6 @@
     <t>#3</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>#4</t>
   </si>
   <si>
@@ -134,9 +132,6 @@
     <t>9,9,9,9</t>
   </si>
   <si>
-    <t>1,</t>
-  </si>
-  <si>
     <t>#6</t>
   </si>
   <si>
@@ -288,9 +283,6 @@
   </si>
   <si>
     <t>2,2,2,2,2</t>
-  </si>
-  <si>
-    <t>4,</t>
   </si>
   <si>
     <t>Test selectFirstHavingPredicate_EQ</t>
@@ -356,7 +348,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -401,12 +393,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,30 +678,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="60.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -720,29 +709,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="3"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,16 +735,16 @@
         <v>4</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -773,16 +755,16 @@
         <v>9</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B14" s="1">
         <v>1</v>
       </c>
@@ -793,7 +775,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="1">
         <v>2</v>
       </c>
@@ -804,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="1">
         <v>3</v>
       </c>
@@ -815,16 +797,16 @@
         <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -833,16 +815,16 @@
       </c>
       <c r="D17" s="1"/>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="1">
         <v>5</v>
       </c>
@@ -853,7 +835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="1">
         <v>6</v>
       </c>
@@ -864,7 +846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="1">
         <v>7</v>
       </c>
@@ -875,16 +857,16 @@
         <v>7</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="1">
         <v>8</v>
       </c>
@@ -895,16 +877,16 @@
         <v>8</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="1">
         <v>9</v>
       </c>
@@ -915,7 +897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="1">
         <v>10</v>
       </c>
@@ -924,52 +906,52 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F27" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F28" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="F32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="F32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:8" x14ac:dyDescent="0.35">
       <c r="F35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F36" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -982,68 +964,68 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1051,7 +1033,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -1063,52 +1045,52 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -1128,40 +1110,40 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -1169,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -1181,16 +1163,16 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>10</v>
@@ -1218,36 +1200,36 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>5</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>5</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -1279,11 +1261,11 @@
       <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -1293,7 +1275,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -1302,32 +1284,28 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -1337,7 +1315,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -1348,12 +1326,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>6</v>
@@ -1362,37 +1340,37 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>6</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>6</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>6</v>
@@ -1400,22 +1378,22 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -1423,44 +1401,44 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1468,7 +1446,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -1480,52 +1458,52 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -1545,40 +1523,40 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1564,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -1598,16 +1576,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>10</v>
@@ -1635,36 +1613,36 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>5</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
-        <v>5</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>5</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>5</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>10</v>
@@ -1696,11 +1674,11 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1710,7 +1688,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -1719,32 +1697,28 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1">
         <v>4</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -1754,7 +1728,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -1765,12 +1739,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1">
         <v>6</v>
@@ -1779,37 +1753,37 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1">
         <v>6</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>6</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
       </c>
       <c r="J26" s="1">
         <v>6</v>
@@ -1817,22 +1791,22 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -1840,44 +1814,44 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -1885,7 +1859,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>22</v>
@@ -1897,52 +1871,52 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -1962,40 +1936,40 @@
         <v>24</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -2003,7 +1977,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>26</v>
@@ -2015,16 +1989,16 @@
         <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>10</v>
@@ -2052,36 +2026,36 @@
       </c>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2">
-        <v>5</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
+        <v>5</v>
+      </c>
+      <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="2">
-        <v>5</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="1">
+        <v>5</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>5</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>10</v>
@@ -2113,11 +2087,11 @@
       <c r="Y36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,7 +2101,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
@@ -2136,32 +2110,28 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>4</v>
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>4</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -2171,7 +2141,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1">
         <v>4</v>
@@ -2182,12 +2152,12 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1">
         <v>6</v>
@@ -2196,37 +2166,37 @@
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J40" s="1">
         <v>6</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>6</v>
       </c>
       <c r="E41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
       </c>
       <c r="J41" s="1">
         <v>6</v>
@@ -2234,22 +2204,22 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>67</v>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
@@ -2257,11 +2227,11 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -2282,68 +2252,68 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:Z44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2351,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -2363,52 +2333,52 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -2428,40 +2398,40 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -2469,7 +2439,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -2481,16 +2451,16 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>10</v>
@@ -2518,36 +2488,36 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>4</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>4</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -2579,11 +2549,11 @@
       <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -2593,7 +2563,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -2602,32 +2572,28 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>4</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -2637,7 +2603,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -2648,12 +2614,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>4</v>
@@ -2662,37 +2628,37 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>4</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>4</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>4</v>
@@ -2700,22 +2666,22 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -2723,44 +2689,44 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -2768,7 +2734,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -2780,52 +2746,52 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -2845,40 +2811,40 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -2886,7 +2852,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -2898,16 +2864,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>10</v>
@@ -2935,36 +2901,36 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>4</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>4</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
-        <v>4</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>10</v>
@@ -2996,11 +2962,11 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -3010,7 +2976,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -3019,32 +2985,28 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>4</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1">
         <v>4</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -3054,7 +3016,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -3065,12 +3027,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1">
         <v>4</v>
@@ -3079,37 +3041,37 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1">
         <v>4</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>4</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
       </c>
       <c r="J26" s="1">
         <v>4</v>
@@ -3117,22 +3079,22 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -3140,44 +3102,44 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="H33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="O33" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="H33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="O33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
@@ -3185,7 +3147,7 @@
         <v>21</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>22</v>
@@ -3197,52 +3159,52 @@
         <v>21</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="1"/>
       <c r="C35" s="1" t="s">
         <v>23</v>
@@ -3262,40 +3224,40 @@
         <v>24</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="S35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="U35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T35" s="1" t="s">
+      <c r="V35" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U35" s="1" t="s">
+      <c r="W35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V35" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W35" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>24</v>
       </c>
@@ -3303,7 +3265,7 @@
         <v>25</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>26</v>
@@ -3315,16 +3277,16 @@
         <v>25</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>10</v>
@@ -3352,36 +3314,36 @@
       </c>
       <c r="Z36" s="1"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="2">
-        <v>4</v>
-      </c>
-      <c r="E37" s="2">
+      <c r="D37" s="1">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
         <v>1</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J37" s="2">
-        <v>4</v>
-      </c>
-      <c r="K37" s="2" t="s">
+      <c r="J37" s="1">
+        <v>4</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="1">
         <v>8</v>
       </c>
       <c r="O37" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>10</v>
@@ -3413,11 +3375,11 @@
       <c r="Y37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z37" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z37" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>30</v>
       </c>
@@ -3427,7 +3389,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" s="1">
@@ -3436,32 +3398,28 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>4</v>
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I39" s="1"/>
       <c r="J39" s="1">
         <v>4</v>
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="1">
         <v>4</v>
@@ -3471,7 +3429,7 @@
       </c>
       <c r="E40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" s="1">
         <v>4</v>
@@ -3482,12 +3440,12 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1">
         <v>4</v>
@@ -3496,37 +3454,37 @@
         <v>5</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J41" s="1">
         <v>4</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="K41" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L41" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B42" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4</v>
       </c>
       <c r="D42" s="1">
         <v>4</v>
       </c>
       <c r="E42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4</v>
       </c>
       <c r="J42" s="1">
         <v>4</v>
@@ -3534,22 +3492,22 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>67</v>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1">
         <v>4</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>67</v>
+      <c r="H43" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
@@ -3557,11 +3515,11 @@
       </c>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" s="2"/>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
     </row>
@@ -3582,68 +3540,68 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z13"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -3651,7 +3609,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -3663,52 +3621,52 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -3728,40 +3686,40 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -3769,7 +3727,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -3781,16 +3739,16 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>10</v>
@@ -3818,36 +3776,36 @@
       </c>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>8</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -3879,11 +3837,11 @@
       <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3893,7 +3851,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -3902,32 +3860,28 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -3937,7 +3891,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -3948,12 +3902,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -3962,37 +3916,37 @@
         <v>2</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>4</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -4000,22 +3954,22 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
         <v>4</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
@@ -4023,44 +3977,44 @@
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -4068,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -4080,52 +4034,52 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -4145,40 +4099,40 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -4186,7 +4140,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -4198,16 +4152,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>10</v>
@@ -4235,36 +4189,36 @@
       </c>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
-        <v>8</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>8</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>10</v>
@@ -4296,11 +4250,11 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -4310,7 +4264,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -4319,32 +4273,28 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>8</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -4354,7 +4304,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -4365,12 +4315,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -4379,37 +4329,37 @@
         <v>2</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="1">
+        <v>4</v>
       </c>
       <c r="J26" s="1">
         <v>8</v>
@@ -4417,22 +4367,22 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <v>4</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -4440,44 +4390,44 @@
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -4485,7 +4435,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>22</v>
@@ -4497,52 +4447,52 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -4562,40 +4512,40 @@
         <v>24</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -4603,7 +4553,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>26</v>
@@ -4615,16 +4565,16 @@
         <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>10</v>
@@ -4652,36 +4602,36 @@
       </c>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
         <v>1</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="2">
-        <v>8</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="1">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>8</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>10</v>
@@ -4713,11 +4663,11 @@
       <c r="Y36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
@@ -4727,7 +4677,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
@@ -4736,32 +4686,28 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>8</v>
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>8</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -4771,7 +4717,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1">
         <v>4</v>
@@ -4782,12 +4728,12 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -4796,37 +4742,37 @@
         <v>2</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J40" s="1">
         <v>8</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L40" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>88</v>
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
       </c>
       <c r="E41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4</v>
       </c>
       <c r="J41" s="1">
         <v>8</v>
@@ -4834,22 +4780,22 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1">
         <v>4</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>67</v>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1" t="s">
@@ -4857,11 +4803,11 @@
       </c>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -4882,68 +4828,68 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:Z43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Z13"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="H2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="O2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="O2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
@@ -4951,7 +4897,7 @@
         <v>21</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -4963,52 +4909,52 @@
         <v>21</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X3" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -5028,40 +4974,40 @@
         <v>24</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
@@ -5069,7 +5015,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -5081,16 +5027,16 @@
         <v>25</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>10</v>
@@ -5116,36 +5062,36 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2">
-        <v>8</v>
-      </c>
-      <c r="E6" s="2">
+      <c r="D6" s="1">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="2">
-        <v>8</v>
-      </c>
-      <c r="K6" s="2" t="s">
+      <c r="J6" s="1">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -5177,11 +5123,11 @@
       <c r="Y6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z6" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>30</v>
       </c>
@@ -5191,7 +5137,7 @@
       </c>
       <c r="E7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -5200,32 +5146,28 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>8</v>
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I8" s="1"/>
       <c r="J8" s="1">
         <v>8</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>4</v>
@@ -5235,7 +5177,7 @@
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" s="1">
         <v>4</v>
@@ -5246,12 +5188,12 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D10" s="1">
         <v>8</v>
@@ -5260,37 +5202,37 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J10" s="1">
         <v>8</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
       </c>
       <c r="E11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
       </c>
       <c r="J11" s="1">
         <v>8</v>
@@ -5298,63 +5240,63 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>67</v>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="H12" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>67</v>
+      <c r="H12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13" s="2"/>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -5362,7 +5304,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -5374,52 +5316,52 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -5439,40 +5381,40 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -5480,7 +5422,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -5492,16 +5434,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>10</v>
@@ -5527,36 +5469,36 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1">
         <v>5</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
-        <v>8</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>5</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>10</v>
@@ -5588,11 +5530,11 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -5602,7 +5544,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -5611,32 +5553,28 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>8</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -5646,7 +5584,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -5657,12 +5595,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -5671,37 +5609,37 @@
         <v>5</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J25" s="1">
         <v>8</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L25" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>8</v>
@@ -5709,63 +5647,63 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="2"/>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="H32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="O32" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="H32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="O32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
@@ -5773,7 +5711,7 @@
         <v>21</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>22</v>
@@ -5785,52 +5723,52 @@
         <v>21</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1"/>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -5850,40 +5788,40 @@
         <v>24</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="S34" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T34" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="U34" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T34" s="1" t="s">
+      <c r="V34" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U34" s="1" t="s">
+      <c r="W34" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W34" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
@@ -5891,7 +5829,7 @@
         <v>25</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>26</v>
@@ -5903,16 +5841,16 @@
         <v>25</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>10</v>
@@ -5938,36 +5876,36 @@
       <c r="Y35" s="1"/>
       <c r="Z35" s="1"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D36" s="2">
-        <v>8</v>
-      </c>
-      <c r="E36" s="2">
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1">
         <v>5</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J36" s="2">
-        <v>8</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="1">
+        <v>8</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="1">
         <v>5</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>10</v>
@@ -5999,11 +5937,11 @@
       <c r="Y36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z36" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="Z36" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
@@ -6013,7 +5951,7 @@
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
@@ -6022,32 +5960,28 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>8</v>
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1">
         <v>8</v>
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C39" s="1">
         <v>4</v>
@@ -6057,7 +5991,7 @@
       </c>
       <c r="E39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I39" s="1">
         <v>4</v>
@@ -6068,12 +6002,12 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
@@ -6082,37 +6016,37 @@
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="J40" s="1">
         <v>8</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B41" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
       </c>
       <c r="D41" s="1">
         <v>8</v>
       </c>
       <c r="E41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1</v>
       </c>
       <c r="J41" s="1">
         <v>8</v>
@@ -6120,30 +6054,30 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="H42" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>67</v>
+      <c r="H42" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="2"/>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B43" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
     </row>
@@ -6164,70 +6098,70 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B3:Z42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T27" sqref="T27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="Q43" sqref="Q43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="5.7109375" customWidth="1"/>
-    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.54296875" customWidth="1"/>
+    <col min="8" max="8" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="5.7265625" customWidth="1"/>
+    <col min="15" max="15" width="4.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="9" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="H3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
-    </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="O3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
@@ -6235,7 +6169,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>22</v>
@@ -6247,52 +6181,52 @@
         <v>21</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -6312,40 +6246,40 @@
         <v>24</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X5" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z5" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>24</v>
       </c>
@@ -6353,7 +6287,7 @@
         <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>26</v>
@@ -6365,16 +6299,16 @@
         <v>25</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>10</v>
@@ -6400,36 +6334,36 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="1">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2">
-        <v>8</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>9</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>10</v>
@@ -6461,11 +6395,11 @@
       <c r="Y7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="Z7" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>30</v>
       </c>
@@ -6475,7 +6409,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
@@ -6484,32 +6418,28 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>8</v>
       </c>
       <c r="E9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I9" s="1"/>
       <c r="J9" s="1">
         <v>8</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="1">
         <v>4</v>
@@ -6519,7 +6449,7 @@
       </c>
       <c r="E10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -6530,12 +6460,12 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D11" s="1">
         <v>8</v>
@@ -6544,37 +6474,37 @@
         <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J11" s="1">
-        <v>8</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>36</v>
+      <c r="C12" s="1">
+        <v>1</v>
       </c>
       <c r="D12" s="1">
         <v>8</v>
       </c>
       <c r="E12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
       </c>
       <c r="J12" s="1">
         <v>8</v>
@@ -6582,68 +6512,63 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>67</v>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="H13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>67</v>
+      <c r="H13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2"/>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="H17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="O17" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
-      <c r="Z17" s="5"/>
-    </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="O17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
@@ -6651,7 +6576,7 @@
         <v>21</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>22</v>
@@ -6663,52 +6588,52 @@
         <v>21</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="S18" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U18" s="1" t="s">
+      <c r="W18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W18" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X18" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
         <v>23</v>
@@ -6728,40 +6653,40 @@
         <v>24</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R19" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="S19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U19" s="1" t="s">
+      <c r="W19" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X19" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>24</v>
       </c>
@@ -6769,7 +6694,7 @@
         <v>25</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>26</v>
@@ -6781,16 +6706,16 @@
         <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>10</v>
@@ -6816,36 +6741,36 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="2">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="D21" s="1">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J21" s="2">
-        <v>8</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="1">
+        <v>8</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>9</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>10</v>
@@ -6877,11 +6802,11 @@
       <c r="Y21" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="Z21" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>30</v>
       </c>
@@ -6891,7 +6816,7 @@
       </c>
       <c r="E22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1">
@@ -6900,32 +6825,28 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>8</v>
       </c>
       <c r="E23" s="1"/>
       <c r="H23" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I23" s="1"/>
       <c r="J23" s="1">
         <v>8</v>
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <v>4</v>
@@ -6935,7 +6856,7 @@
       </c>
       <c r="E24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I24" s="1">
         <v>4</v>
@@ -6946,12 +6867,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D25" s="1">
         <v>8</v>
@@ -6960,37 +6881,37 @@
         <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J25" s="1">
+        <v>8</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="1">
-        <v>8</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L25" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>36</v>
+      <c r="C26" s="1">
+        <v>1</v>
       </c>
       <c r="D26" s="1">
         <v>8</v>
       </c>
       <c r="E26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
       </c>
       <c r="J26" s="1">
         <v>8</v>
@@ -6998,63 +6919,63 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>67</v>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="H27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>67</v>
+      <c r="H27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" s="2" t="s">
-        <v>75</v>
+    <row r="28" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="H31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="O31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="5"/>
-      <c r="R31" s="5"/>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-    </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="H31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="O31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+    </row>
+    <row r="32" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
@@ -7062,7 +6983,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>22</v>
@@ -7074,52 +6995,52 @@
         <v>21</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="S32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="U32" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="V32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U32" s="1" t="s">
+      <c r="W32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
         <v>23</v>
@@ -7139,40 +7060,40 @@
         <v>24</v>
       </c>
       <c r="P33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R33" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="S33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T33" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="U33" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="T33" s="1" t="s">
+      <c r="V33" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="U33" s="1" t="s">
+      <c r="W33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V33" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="X33" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>24</v>
       </c>
@@ -7180,7 +7101,7 @@
         <v>25</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>26</v>
@@ -7192,16 +7113,16 @@
         <v>25</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P34" s="1" t="s">
         <v>10</v>
@@ -7227,36 +7148,36 @@
       <c r="Y34" s="1"/>
       <c r="Z34" s="1"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D35" s="2">
-        <v>8</v>
-      </c>
-      <c r="E35" s="2" t="s">
+      <c r="D35" s="1">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J35" s="2">
-        <v>8</v>
-      </c>
-      <c r="K35" s="2" t="s">
+      <c r="J35" s="1">
+        <v>8</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="1">
         <v>9</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="P35" s="1" t="s">
         <v>10</v>
@@ -7288,11 +7209,11 @@
       <c r="Y35" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="Z35" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>30</v>
       </c>
@@ -7302,7 +7223,7 @@
       </c>
       <c r="E36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
@@ -7311,32 +7232,28 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1">
         <v>8</v>
       </c>
       <c r="E37" s="1"/>
       <c r="H37" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="I37" s="1"/>
       <c r="J37" s="1">
         <v>8</v>
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B38" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="1">
         <v>4</v>
@@ -7346,7 +7263,7 @@
       </c>
       <c r="E38" s="1"/>
       <c r="H38" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I38" s="1">
         <v>4</v>
@@ -7357,12 +7274,12 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.35">
       <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="D39" s="1">
         <v>8</v>
@@ -7371,37 +7288,37 @@
         <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I39" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B40" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J39" s="1">
-        <v>8</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L39" s="2">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>36</v>
+      <c r="C40" s="1">
+        <v>1</v>
       </c>
       <c r="D40" s="1">
         <v>8</v>
       </c>
       <c r="E40" s="1"/>
       <c r="H40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
+      </c>
+      <c r="I40" s="1">
+        <v>1</v>
       </c>
       <c r="J40" s="1">
         <v>8</v>
@@ -7409,28 +7326,28 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>67</v>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="H41" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>67</v>
+      <c r="H41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>75</v>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B42" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
